--- a/handouts/chapter_1_5_handout_key.xlsx
+++ b/handouts/chapter_1_5_handout_key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RData\BYUI-Timeseries-Drafts\handouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833F578-5CA6-4F95-8C2A-B70199F0D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49244A-3DFD-414B-9F39-5BFCF919BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB73943A-C465-40BE-817C-B9991112161C}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Year</t>
   </si>
@@ -159,6 +159,12 @@
     <t>Table 3: Computation of the 
 Centered Moving Average,      , and the Estimated Quarterly Multiplicative Effect,</t>
   </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonally Adjusted </t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +172,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -243,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -581,11 +587,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,15 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,10 +679,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,29 +704,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +731,56 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,8 +1011,8 @@
       <xdr:rowOff>83693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="252762" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1018,7 +1106,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1089,8 +1177,8 @@
       <xdr:rowOff>83693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180819" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -1184,7 +1272,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -1310,8 +1398,8 @@
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="320040" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -1405,7 +1493,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -1470,8 +1558,8 @@
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180819" cy="231923"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -1577,7 +1665,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -1689,7 +1777,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1704,8 +1791,8 @@
       <xdr:rowOff>197993</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="252762" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -1799,7 +1886,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -1870,8 +1957,8 @@
       <xdr:rowOff>403733</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180819" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -1965,7 +2052,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -2036,8 +2123,8 @@
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="320040" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2131,7 +2218,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2196,8 +2283,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180819" cy="250903"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -2303,7 +2390,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -2357,6 +2444,1386 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑠 ̂_𝑡 ) ̿</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>318294</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196079" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B256B8A-BBCE-4369-B8EB-9DF77887696A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1141254" y="746633"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B256B8A-BBCE-4369-B8EB-9DF77887696A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1141254" y="746633"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310674</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83693</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="252762" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E35360-5A9C-439C-BBC5-92104823D087}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1956594" y="700913"/>
+              <a:ext cx="252762" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E35360-5A9C-439C-BBC5-92104823D087}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1956594" y="700913"/>
+              <a:ext cx="252762" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑚_𝑡 ) ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>287814</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83693</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180819" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF20A28-6768-4065-83E1-43A508413035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2901474" y="700913"/>
+              <a:ext cx="180819" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF20A28-6768-4065-83E1-43A508413035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2901474" y="700913"/>
+              <a:ext cx="180819" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠_𝑡 ) ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="320040" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370AD3CC-C457-4356-AA1B-781E2AC967D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3901440" y="10397490"/>
+              <a:ext cx="320040" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370AD3CC-C457-4356-AA1B-781E2AC967D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3901440" y="10397490"/>
+              <a:ext cx="320040" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠 ̅_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470694</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>281813</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196079" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64757200-8E88-49BC-901E-51433E6C4EB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1293654" y="899033"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64757200-8E88-49BC-901E-51433E6C4EB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1293654" y="899033"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623094</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68453</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196079" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7165BC-7553-4911-AA9F-50F4B203D333}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1446054" y="1051433"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7165BC-7553-4911-AA9F-50F4B203D333}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1446054" y="1051433"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>775494</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>37973</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196079" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56F5EDB-18A7-4F72-AB38-F250932F44FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1598454" y="1203833"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56F5EDB-18A7-4F72-AB38-F250932F44FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1598454" y="1203833"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104934</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7493</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196079" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C14D1B-61E6-4DAA-AFE0-60E629C45DB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1750854" y="1356233"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C14D1B-61E6-4DAA-AFE0-60E629C45DB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1750854" y="1356233"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196079" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2367FA3F-79B5-490C-AE83-08B8A508580B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5882640" y="10424160"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2367FA3F-79B5-490C-AE83-08B8A508580B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5882640" y="10424160"/>
+              <a:ext cx="196079" cy="221214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -2686,10 +4153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFF2E6-1E13-48EF-9BE3-D6C90C46BEC8}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2702,12 +4169,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2720,324 +4187,318 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>1.24</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>0.48</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>1.24</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>1.3149999999999999</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <f>B5/C5</f>
         <v>0.94296577946768068</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>1.71</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <f>((0.5*B4)+B5+B6+B7+(0.5*B8))/4</f>
         <v>1.61625</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <f t="shared" ref="D6:D9" si="0">B6/C6</f>
         <v>1.0580046403712298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>2.42</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <f t="shared" ref="C7:C10" si="1">((0.5*B5)+B6+B7+B8+(0.5*B9))/4</f>
         <v>1.8287499999999999</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <f t="shared" si="0"/>
         <v>1.3233082706766919</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>1.71</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <f t="shared" si="1"/>
         <v>1.9474999999999998</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <f t="shared" si="0"/>
         <v>0.87804878048780499</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>1.71</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <f t="shared" si="1"/>
         <v>2.2512500000000002</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <f t="shared" si="0"/>
         <v>0.75957801221543575</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>2.19</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <f t="shared" si="1"/>
         <v>2.7087500000000002</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="14">
         <v>4.37</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>3.1360000000000001</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>1.393</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>3.42</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>3.4689999999999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>3.42</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>3.956</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>3.14</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>4.4740000000000002</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>7.32</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>4.8010000000000002</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>1.5249999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>4.6100000000000003</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>5.87</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>90.146000000000001</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>96.578999999999994</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>117.154</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>96.128</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>1.2190000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>94.835999999999999</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>95.902000000000001</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>81.796999999999997</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="32">
         <v>89.498000000000005</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-    </row>
     <row r="25" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3051,10 +4512,10 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="25">
         <v>0.94296577946768068</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="26">
         <v>1.0580046403712298</v>
       </c>
     </row>
@@ -3062,16 +4523,16 @@
       <c r="A28" s="7">
         <v>2006</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="25">
         <v>1.3233082706766919</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="25">
         <v>0.87804878048780499</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="25">
         <v>0.75957801221543575</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="26">
         <v>0.80800000000000005</v>
       </c>
     </row>
@@ -3079,16 +4540,16 @@
       <c r="A29" s="7">
         <v>2007</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="25">
         <v>1.393</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="25">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="25">
         <v>0.86399999999999999</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="26">
         <v>0.70199999999999996</v>
       </c>
     </row>
@@ -3096,16 +4557,16 @@
       <c r="A30" s="7">
         <v>2008</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="25">
         <v>1.5249999999999999</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="25">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="25">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="26">
         <v>1.325</v>
       </c>
     </row>
@@ -3113,16 +4574,16 @@
       <c r="A31" s="7">
         <v>2009</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="25">
         <v>1.1819999999999999</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="25">
         <v>0.78100000000000003</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="25">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="26">
         <v>1.0049999999999999</v>
       </c>
     </row>
@@ -3130,16 +4591,16 @@
       <c r="A32" s="7">
         <v>2010</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="25">
         <v>1.1930000000000001</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="25">
         <v>0.91200000000000003</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="25">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="26">
         <v>0.96299999999999997</v>
       </c>
     </row>
@@ -3147,16 +4608,16 @@
       <c r="A33" s="7">
         <v>2011</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="25">
         <v>1.1060000000000001</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="25">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="25">
         <v>0.999</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="26">
         <v>0.73399999999999999</v>
       </c>
     </row>
@@ -3164,16 +4625,16 @@
       <c r="A34" s="7">
         <v>2012</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="25">
         <v>1.3280000000000001</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="25">
         <v>1.141</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="25">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="26">
         <v>0.82799999999999996</v>
       </c>
     </row>
@@ -3181,16 +4642,16 @@
       <c r="A35" s="7">
         <v>2013</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="25">
         <v>1.2490000000000001</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="25">
         <v>1.0189999999999999</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="25">
         <v>0.81899999999999995</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="26">
         <v>0.85599999999999998</v>
       </c>
     </row>
@@ -3198,16 +4659,16 @@
       <c r="A36" s="7">
         <v>2014</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="25">
         <v>1.3009999999999999</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="25">
         <v>1.012</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="25">
         <v>0.78300000000000003</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="26">
         <v>0.81799999999999995</v>
       </c>
     </row>
@@ -3215,16 +4676,16 @@
       <c r="A37" s="7">
         <v>2015</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="25">
         <v>1.367</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="25">
         <v>1.0129999999999999</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="26">
         <v>0.89100000000000001</v>
       </c>
     </row>
@@ -3232,16 +4693,16 @@
       <c r="A38" s="7">
         <v>2016</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="25">
         <v>1.355</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="25">
         <v>0.92800000000000005</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="25">
         <v>0.78100000000000003</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="26">
         <v>0.85499999999999998</v>
       </c>
     </row>
@@ -3249,16 +4710,16 @@
       <c r="A39" s="7">
         <v>2017</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="25">
         <v>1.4119999999999999</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="25">
         <v>0.93500000000000005</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="25">
         <v>0.77600000000000002</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="26">
         <v>0.86399999999999999</v>
       </c>
       <c r="H39" s="1"/>
@@ -3272,16 +4733,16 @@
       <c r="A40" s="7">
         <v>2018</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="25">
         <v>1.405</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="25">
         <v>0.93899999999999995</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="25">
         <v>0.80800000000000005</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="26">
         <v>0.96799999999999997</v>
       </c>
       <c r="F40" s="1"/>
@@ -3297,16 +4758,16 @@
       <c r="A41" s="7">
         <v>2019</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="25">
         <v>1.3029999999999999</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="25">
         <v>0.89400000000000002</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="25">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="26">
         <v>0.95599999999999996</v>
       </c>
       <c r="F41" s="1"/>
@@ -3322,16 +4783,16 @@
       <c r="A42" s="7">
         <v>2020</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="25">
         <v>1.3560000000000001</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="25">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="25">
         <v>0.84</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="26">
         <v>0.83499999999999996</v>
       </c>
       <c r="F42" s="1"/>
@@ -3347,16 +4808,16 @@
       <c r="A43" s="7">
         <v>2021</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="25">
         <v>1.3260000000000001</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="25">
         <v>1.0049999999999999</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="25">
         <v>0.875</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="26">
         <v>0.872</v>
       </c>
       <c r="F43" s="1"/>
@@ -3366,19 +4827,19 @@
       <c r="A44" s="7">
         <v>2022</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="25">
         <v>1.282</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="25">
         <v>0.995</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="25">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="26">
         <v>0.93300000000000005</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="37" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="1"/>
@@ -3393,19 +4854,19 @@
       <c r="A45" s="7">
         <v>2023</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="25">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="25">
         <v>0.98899999999999999</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="32"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3416,47 +4877,338 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="25">
         <f>AVERAGE(B28:B45)</f>
         <v>1.3125171261487054</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="25">
         <f>AVERAGE(C28:C45)</f>
         <v>0.94578048780487811</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="25">
         <f>AVERAGE(D27:D44)</f>
         <v>0.83280798842683978</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="26">
         <f>AVERAGE(E27:E44)</f>
         <v>0.90394470224284618</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="27">
         <f>AVERAGE(B46:E46)</f>
         <v>0.99876257615581743</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="29">
         <f>B46/F46</f>
         <v>1.3141432783760403</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="29">
         <f>C46/F46</f>
         <v>0.94695226912199248</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="29">
         <f>D46/F46</f>
         <v>0.83383980167966665</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="30">
         <f>E46/F46</f>
         <v>0.90506465082230048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="47">
+        <v>1.24</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="43">
+        <v>0.48</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="43">
+        <v>1.24</v>
+      </c>
+      <c r="C54" s="43">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D54" s="25">
+        <f>D27</f>
+        <v>0.94296577946768068</v>
+      </c>
+      <c r="E54" s="56">
+        <f>D47</f>
+        <v>0.83383980167966665</v>
+      </c>
+      <c r="F54" s="56">
+        <f>B54/(C54*E54)</f>
+        <v>1.1308716345372256</v>
+      </c>
+      <c r="G54" s="57">
+        <f>B54/E54</f>
+        <v>1.4870961994164515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="43">
+        <v>1.71</v>
+      </c>
+      <c r="C55" s="43">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="D55" s="26">
+        <f>E27</f>
+        <v>1.0580046403712298</v>
+      </c>
+      <c r="E55" s="56">
+        <f>E47</f>
+        <v>0.90506465082230048</v>
+      </c>
+      <c r="F55" s="56">
+        <f t="shared" ref="F55:F58" si="2">B55/(C55*E55)</f>
+        <v>1.1691632369801201</v>
+      </c>
+      <c r="G55" s="57">
+        <f t="shared" ref="G55:G58" si="3">B55/E55</f>
+        <v>1.8893677909598745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="43">
+        <v>2.42</v>
+      </c>
+      <c r="C56" s="43">
+        <v>1.829</v>
+      </c>
+      <c r="D56" s="56">
+        <f>B28</f>
+        <v>1.3233082706766919</v>
+      </c>
+      <c r="E56" s="56">
+        <f>B47</f>
+        <v>1.3141432783760403</v>
+      </c>
+      <c r="F56" s="56">
+        <f t="shared" si="2"/>
+        <v>1.0068364795447249</v>
+      </c>
+      <c r="G56" s="57">
+        <f t="shared" si="3"/>
+        <v>1.8415039210873019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="43">
+        <v>1.71</v>
+      </c>
+      <c r="C57" s="43">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="D57" s="56">
+        <f>C28</f>
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="E57" s="56">
+        <f>C47</f>
+        <v>0.94695226912199248</v>
+      </c>
+      <c r="F57" s="56">
+        <f t="shared" si="2"/>
+        <v>0.92747469618411316</v>
+      </c>
+      <c r="G57" s="57">
+        <f t="shared" si="3"/>
+        <v>1.8057932334704683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="43">
+        <v>1.71</v>
+      </c>
+      <c r="C58" s="43">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="D58" s="56">
+        <f>D28</f>
+        <v>0.75957801221543575</v>
+      </c>
+      <c r="E58" s="56">
+        <f>D47</f>
+        <v>0.83383980167966665</v>
+      </c>
+      <c r="F58" s="56">
+        <f t="shared" si="2"/>
+        <v>0.9110411505288446</v>
+      </c>
+      <c r="G58" s="57">
+        <f t="shared" si="3"/>
+        <v>2.050753629840429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="43">
+        <v>2.19</v>
+      </c>
+      <c r="C59" s="43">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="D59" s="43">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E59" s="43">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F59" s="56">
+        <f>B59/(C59*E59)</f>
+        <v>0.89327777879750125</v>
+      </c>
+      <c r="G59" s="49">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="43">
+        <v>4.37</v>
+      </c>
+      <c r="C60" s="43">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="D60" s="43">
+        <v>1.393</v>
+      </c>
+      <c r="E60" s="43">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="F60" s="43">
+        <v>1.06</v>
+      </c>
+      <c r="G60" s="49">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="43">
+        <v>3.42</v>
+      </c>
+      <c r="C61" s="43">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="D61" s="43">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E61" s="43">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="F61" s="43">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="G61" s="49">
+        <v>3.6120000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3667,20 +5419,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ca1cba85-b018-40b2-9d9a-243cd5b6fae5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ca1cba85-b018-40b2-9d9a-243cd5b6fae5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3703,14 +5455,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96E0334-A0AA-41B5-AE21-CAD1C9D10746}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5E1B631-90B0-4D19-A35E-F8DC8BE167A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3725,4 +5469,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96E0334-A0AA-41B5-AE21-CAD1C9D10746}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>